--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_DLAnhTuanNB.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_DLAnhTuanNB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="4"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="VNSH02" sheetId="45" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="73">
   <si>
     <t>STT</t>
   </si>
@@ -256,6 +256,12 @@
   </si>
   <si>
     <t>TG102V</t>
+  </si>
+  <si>
+    <t>LE.1.00.---06.191010</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16161</t>
   </si>
 </sst>
 </file>
@@ -710,26 +716,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -746,13 +737,19 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -761,11 +758,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1106,37 +1112,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80"/>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
+      <c r="A1" s="90"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
       <c r="E2" s="93" t="s">
         <v>64</v>
       </c>
@@ -1185,58 +1191,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="89"/>
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="79" t="s">
+      <c r="U4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="89" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="94"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1261,23 +1267,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="79"/>
+      <c r="J5" s="89"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
+      <c r="U5" s="89"/>
+      <c r="V5" s="89"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1311,7 +1317,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="75"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="81" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1342,7 +1348,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="75"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="82"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1371,7 +1377,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="75"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="82"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1400,7 +1406,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="75"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="82"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1429,7 +1435,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="75"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="82"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1458,7 +1464,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="75"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="82"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1487,7 +1493,7 @@
       <c r="R12" s="67"/>
       <c r="S12" s="75"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="81" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1505,7 +1511,7 @@
       <c r="E13" s="74"/>
       <c r="F13" s="62"/>
       <c r="G13" s="62"/>
-      <c r="H13" s="96"/>
+      <c r="H13" s="79"/>
       <c r="I13" s="63"/>
       <c r="J13" s="64"/>
       <c r="K13" s="64"/>
@@ -1518,7 +1524,7 @@
       <c r="R13" s="67"/>
       <c r="S13" s="75"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="82"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1532,9 +1538,9 @@
       <c r="C14" s="61"/>
       <c r="D14" s="62"/>
       <c r="E14" s="74"/>
-      <c r="F14" s="96"/>
+      <c r="F14" s="79"/>
       <c r="G14" s="62"/>
-      <c r="H14" s="96"/>
+      <c r="H14" s="79"/>
       <c r="I14" s="63"/>
       <c r="J14" s="64"/>
       <c r="K14" s="64"/>
@@ -1547,7 +1553,7 @@
       <c r="R14" s="67"/>
       <c r="S14" s="75"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="82"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1561,9 +1567,9 @@
       <c r="C15" s="61"/>
       <c r="D15" s="62"/>
       <c r="E15" s="74"/>
-      <c r="F15" s="96"/>
+      <c r="F15" s="79"/>
       <c r="G15" s="62"/>
-      <c r="H15" s="96"/>
+      <c r="H15" s="79"/>
       <c r="I15" s="63"/>
       <c r="J15" s="64"/>
       <c r="K15" s="64"/>
@@ -1576,7 +1582,7 @@
       <c r="R15" s="67"/>
       <c r="S15" s="75"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="82"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1590,7 +1596,7 @@
       <c r="C16" s="61"/>
       <c r="D16" s="62"/>
       <c r="E16" s="74"/>
-      <c r="F16" s="96"/>
+      <c r="F16" s="79"/>
       <c r="G16" s="62"/>
       <c r="H16" s="62"/>
       <c r="I16" s="63"/>
@@ -1605,7 +1611,7 @@
       <c r="R16" s="67"/>
       <c r="S16" s="75"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="83"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1619,12 +1625,12 @@
       <c r="C17" s="61"/>
       <c r="D17" s="62"/>
       <c r="E17" s="74"/>
-      <c r="F17" s="96"/>
+      <c r="F17" s="79"/>
       <c r="G17" s="62"/>
       <c r="H17" s="64"/>
       <c r="I17" s="63"/>
       <c r="J17" s="66"/>
-      <c r="K17" s="97"/>
+      <c r="K17" s="80"/>
       <c r="L17" s="66"/>
       <c r="M17" s="66"/>
       <c r="N17" s="64"/>
@@ -1646,7 +1652,7 @@
       <c r="C18" s="61"/>
       <c r="D18" s="62"/>
       <c r="E18" s="74"/>
-      <c r="F18" s="96"/>
+      <c r="F18" s="79"/>
       <c r="G18" s="62"/>
       <c r="H18" s="64"/>
       <c r="I18" s="63"/>
@@ -3322,13 +3328,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3340,6 +3339,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3383,37 +3389,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80"/>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
+      <c r="A1" s="90"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
       <c r="E2" s="93" t="s">
         <v>64</v>
       </c>
@@ -3462,58 +3468,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="89"/>
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="79" t="s">
+      <c r="U4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="89" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="94"/>
       <c r="B5" s="77" t="s">
         <v>1</v>
       </c>
@@ -3538,23 +3544,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="79"/>
+      <c r="J5" s="89"/>
       <c r="K5" s="77" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
+      <c r="U5" s="89"/>
+      <c r="V5" s="89"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3588,7 +3594,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="75"/>
       <c r="T6" s="78"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="81" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3619,7 +3625,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="75"/>
       <c r="T7" s="78"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="82"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3648,7 +3654,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="75"/>
       <c r="T8" s="78"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="82"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3677,7 +3683,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="75"/>
       <c r="T9" s="78"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="82"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3706,7 +3712,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="75"/>
       <c r="T10" s="78"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="82"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3735,7 +3741,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="75"/>
       <c r="T11" s="78"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="82"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3764,7 +3770,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="78"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="81" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3795,7 +3801,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="78"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="82"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3824,7 +3830,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="78"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="82"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3853,7 +3859,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="82"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3882,7 +3888,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="83"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5598,13 +5604,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5616,6 +5615,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5626,8 +5632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5659,37 +5665,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80"/>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
+      <c r="A1" s="90"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
       <c r="E2" s="93" t="s">
         <v>64</v>
       </c>
@@ -5738,58 +5744,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="89"/>
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="79" t="s">
+      <c r="U4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="89" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="94"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -5814,23 +5820,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="79"/>
+      <c r="J5" s="89"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
+      <c r="U5" s="89"/>
+      <c r="V5" s="89"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5864,7 +5870,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="75"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="81" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5903,7 +5909,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="75"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="82"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5940,7 +5946,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="75"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="82"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5977,7 +5983,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="75"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="82"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6014,7 +6020,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="75"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="82"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6051,7 +6057,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="75"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="82"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6088,7 +6094,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="81" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6127,7 +6133,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="82"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6164,7 +6170,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="82"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6189,9 +6195,13 @@
         <v>66</v>
       </c>
       <c r="H15" s="47"/>
-      <c r="I15" s="51"/>
+      <c r="I15" s="51" t="s">
+        <v>72</v>
+      </c>
       <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="K15" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="L15" s="39"/>
       <c r="M15" s="39"/>
       <c r="N15" s="1"/>
@@ -6201,7 +6211,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="82"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6238,7 +6248,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="83"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7988,6 +7998,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7999,13 +8016,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8049,37 +8059,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80"/>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
+      <c r="A1" s="90"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
       <c r="E2" s="93" t="s">
         <v>64</v>
       </c>
@@ -8128,58 +8138,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="89"/>
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="79" t="s">
+      <c r="U4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="89" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="94"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8204,23 +8214,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="79"/>
+      <c r="J5" s="89"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
+      <c r="U5" s="89"/>
+      <c r="V5" s="89"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8254,7 +8264,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="81" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8293,7 +8303,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="82"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8330,7 +8340,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="82"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8359,7 +8369,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="82"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8388,7 +8398,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="82"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8417,7 +8427,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="82"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8446,7 +8456,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="81" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8477,7 +8487,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="82"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8506,7 +8516,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="82"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8535,7 +8545,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="82"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8564,7 +8574,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="83"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10280,6 +10290,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10291,13 +10308,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10308,7 +10318,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -10341,37 +10351,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80"/>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
+      <c r="A1" s="90"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
       <c r="E2" s="93" t="s">
         <v>64</v>
       </c>
@@ -10420,58 +10430,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="89"/>
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="79" t="s">
+      <c r="U4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="89" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="94"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -10496,23 +10506,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="79"/>
+      <c r="J5" s="89"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
+      <c r="U5" s="89"/>
+      <c r="V5" s="89"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10546,7 +10556,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="81" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10585,7 +10595,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="82"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10614,7 +10624,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="82"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10643,7 +10653,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="82"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10672,7 +10682,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="82"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10701,7 +10711,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="82"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10730,7 +10740,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="81" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10761,7 +10771,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="82"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10790,7 +10800,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="82"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10819,7 +10829,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="82"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10848,7 +10858,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="83"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12564,6 +12574,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12575,13 +12592,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12625,37 +12635,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80"/>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
+      <c r="A1" s="90"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
       <c r="E2" s="93" t="s">
         <v>64</v>
       </c>
@@ -12704,58 +12714,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="89"/>
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="92" t="s">
+      <c r="P4" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="79" t="s">
+      <c r="R4" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="79" t="s">
+      <c r="U4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="89" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="94"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -12780,23 +12790,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="79"/>
+      <c r="J5" s="89"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="97"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="89"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
+      <c r="U5" s="89"/>
+      <c r="V5" s="89"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12822,7 +12832,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="81" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12853,7 +12863,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="82"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12882,7 +12892,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="82"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -12911,7 +12921,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="82"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -12940,7 +12950,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="82"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -12969,7 +12979,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="82"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -12998,7 +13008,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="81" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -13029,7 +13039,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="82"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -13058,7 +13068,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="82"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -13087,7 +13097,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="82"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13116,7 +13126,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="83"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -14347,13 +14357,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14365,6 +14368,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
